--- a/biology/Histoire de la zoologie et de la botanique/Maximilian_zu_Wied-Neuwied/Maximilian_zu_Wied-Neuwied.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Maximilian_zu_Wied-Neuwied/Maximilian_zu_Wied-Neuwied.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maximilian Alexander Philipp zu Wied-Neuwied est un prince prussien, naturaliste, ethnologue et explorateur, né le 23 septembre 1782 à Neuwied, près de Coblence, et mort le 3 février 1867 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Maximilian zu Wied-Neuwied est le huitième des dix enfants du comte héréditaire Frédéric Charles de Wied (1741-1809) et de son épouse Louise, née comtesse zu Sayn-Wittgenstein-Berleburg (1747-1823).
 Christian Friedrich Hoffmann (de), un lieutenant ingénieur, lui enseigne surtout l'histoire naturelle et l'archéologie, passe beaucoup de temps avec lui dans les forêts environnantes, l'accompagne à la chasse et l'initie à la cueillette de plantes.
@@ -550,7 +564,9 @@
           <t>Espèces éponymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Amphisbaena wiedi
 Anilios wiedii
